--- a/tempfiles/zahracomp/tablefile_zahracomp.xlsx
+++ b/tempfiles/zahracomp/tablefile_zahracomp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="82">
   <si>
     <t>zahracomp</t>
   </si>
@@ -228,6 +228,36 @@
   <si>
     <t>16x16x1</t>
   </si>
+  <si>
+    <t>lud</t>
+  </si>
+  <si>
+    <t>command: cuda/lud_cuda -s 256 -v</t>
+  </si>
+  <si>
+    <t>lud_perimeter(float*, int, int)</t>
+  </si>
+  <si>
+    <t>6x1x1</t>
+  </si>
+  <si>
+    <t>64x1x1</t>
+  </si>
+  <si>
+    <t>lud_diagonal(float*, int, int)</t>
+  </si>
+  <si>
+    <t>32x1x1</t>
+  </si>
+  <si>
+    <t>lud_internal(float*, int, int)</t>
+  </si>
+  <si>
+    <t>7x7x1</t>
+  </si>
+  <si>
+    <t>32x32x1</t>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -362,6 +392,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -6681,11 +6714,11 @@
       <c r="Z186" s="3"/>
     </row>
     <row r="187">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
       <c r="F187" s="2"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -6709,8 +6742,12 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
+      <c r="A188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -6737,8 +6774,12 @@
       <c r="Z188" s="3"/>
     </row>
     <row r="189">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
+      <c r="A189" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>73</v>
+      </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -6793,11 +6834,19 @@
       <c r="Z190" s="3"/>
     </row>
     <row r="191">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
+      <c r="A191" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="3"/>
       <c r="F191" s="2"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -6821,11 +6870,19 @@
       <c r="Z191" s="3"/>
     </row>
     <row r="192">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
+      <c r="A192" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B192" s="21">
+        <v>34.0</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E192" s="3"/>
       <c r="F192" s="2"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -6849,11 +6906,19 @@
       <c r="Z192" s="3"/>
     </row>
     <row r="193">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
+      <c r="A193" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B193" s="21">
+        <v>33.0</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E193" s="3"/>
       <c r="F193" s="2"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -6877,10 +6942,18 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
+      <c r="A194" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B194" s="21">
+        <v>17.0</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="E194" s="5"/>
       <c r="F194" s="2"/>
       <c r="G194" s="3"/>
@@ -6905,7 +6978,7 @@
       <c r="Z194" s="3"/>
     </row>
     <row r="195">
-      <c r="A195" s="6"/>
+      <c r="A195" s="24"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -6933,11 +7006,19 @@
       <c r="Z195" s="3"/>
     </row>
     <row r="196">
-      <c r="A196" s="3"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
+      <c r="A196" s="5"/>
+      <c r="B196" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F196" s="2"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -6961,11 +7042,21 @@
       <c r="Z196" s="3"/>
     </row>
     <row r="197">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
+      <c r="A197" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="C197" s="23">
+        <v>36.8</v>
+      </c>
+      <c r="D197" s="23">
+        <v>36.0</v>
+      </c>
+      <c r="E197" s="23">
+        <v>38.0</v>
+      </c>
       <c r="F197" s="2"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -6989,12 +7080,22 @@
       <c r="Z197" s="3"/>
     </row>
     <row r="198">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
+      <c r="A198" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="C198" s="23">
+        <v>35.0</v>
+      </c>
+      <c r="D198" s="23">
+        <v>35.0</v>
+      </c>
+      <c r="E198" s="23">
+        <v>35.0</v>
+      </c>
+      <c r="F198" s="2"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -7017,11 +7118,11 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -7045,11 +7146,19 @@
       <c r="Z199" s="3"/>
     </row>
     <row r="200">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
+      <c r="A200" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" s="5"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -7073,11 +7182,19 @@
       <c r="Z200" s="3"/>
     </row>
     <row r="201">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
+      <c r="A201" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" s="23">
+        <v>96.970536</v>
+      </c>
+      <c r="C201" s="23">
+        <v>192.763977</v>
+      </c>
+      <c r="D201" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="E201" s="5"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -7101,11 +7218,19 @@
       <c r="Z201" s="3"/>
     </row>
     <row r="202">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
+      <c r="A202" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202" s="23">
+        <v>2.562846</v>
+      </c>
+      <c r="C202" s="23">
+        <v>5.094582</v>
+      </c>
+      <c r="D202" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="E202" s="5"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -7129,11 +7254,19 @@
       <c r="Z202" s="3"/>
     </row>
     <row r="203">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
+      <c r="A203" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B203" s="23">
+        <v>0.206717</v>
+      </c>
+      <c r="C203" s="23">
+        <v>0.410924</v>
+      </c>
+      <c r="D203" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="E203" s="5"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -7157,11 +7290,19 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
+      <c r="A204" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B204" s="23">
+        <v>0.177823</v>
+      </c>
+      <c r="C204" s="23">
+        <v>0.353488</v>
+      </c>
+      <c r="D204" s="23">
+        <v>83.0</v>
+      </c>
+      <c r="E204" s="5"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -7185,11 +7326,19 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
+      <c r="A205" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B205" s="23">
+        <v>0.024624</v>
+      </c>
+      <c r="C205" s="23">
+        <v>0.04895</v>
+      </c>
+      <c r="D205" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E205" s="5"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -7213,11 +7362,19 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
+      <c r="A206" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="23">
+        <v>0.023743</v>
+      </c>
+      <c r="C206" s="23">
+        <v>0.047197</v>
+      </c>
+      <c r="D206" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E206" s="5"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -7241,11 +7398,19 @@
       <c r="Z206" s="3"/>
     </row>
     <row r="207">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
+      <c r="A207" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B207" s="23">
+        <v>0.023189</v>
+      </c>
+      <c r="C207" s="23">
+        <v>0.046096</v>
+      </c>
+      <c r="D207" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E207" s="5"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -7269,11 +7434,19 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
+      <c r="A208" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B208" s="23">
+        <v>0.004843</v>
+      </c>
+      <c r="C208" s="25">
+        <v>0.009628</v>
+      </c>
+      <c r="D208" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="E208" s="5"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -7297,11 +7470,19 @@
       <c r="Z208" s="3"/>
     </row>
     <row r="209">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
+      <c r="A209" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B209" s="23">
+        <v>0.002038</v>
+      </c>
+      <c r="C209" s="25">
+        <v>0.004051</v>
+      </c>
+      <c r="D209" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E209" s="5"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -7325,11 +7506,19 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
+      <c r="A210" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B210" s="23">
+        <v>0.001767</v>
+      </c>
+      <c r="C210" s="25">
+        <v>0.003513</v>
+      </c>
+      <c r="D210" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E210" s="5"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -7353,11 +7542,19 @@
       <c r="Z210" s="3"/>
     </row>
     <row r="211">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
+      <c r="A211" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B211" s="23">
+        <v>0.001082</v>
+      </c>
+      <c r="C211" s="25">
+        <v>0.00215</v>
+      </c>
+      <c r="D211" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="E211" s="5"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
@@ -7381,11 +7578,19 @@
       <c r="Z211" s="3"/>
     </row>
     <row r="212">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
+      <c r="A212" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B212" s="23">
+        <v>7.93E-4</v>
+      </c>
+      <c r="C212" s="25">
+        <v>0.001576</v>
+      </c>
+      <c r="D212" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="E212" s="5"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
@@ -7409,11 +7614,11 @@
       <c r="Z212" s="3"/>
     </row>
     <row r="213">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="9"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="5"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
@@ -7437,11 +7642,11 @@
       <c r="Z213" s="3"/>
     </row>
     <row r="214">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
+      <c r="A214" s="5"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="5"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
@@ -7465,11 +7670,15 @@
       <c r="Z214" s="3"/>
     </row>
     <row r="215">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
+      <c r="A215" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" s="26">
+        <v>4.309838</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
@@ -7493,11 +7702,16 @@
       <c r="Z215" s="3"/>
     </row>
     <row r="216">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
+      <c r="A216" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B216" s="27" t="str">
+        <f>SUM(C201:C212)</f>
+        <v>198.786132</v>
+      </c>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
@@ -29472,6 +29686,34 @@
       <c r="Y1000" s="3"/>
       <c r="Z1000" s="3"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
